--- a/Finished/Chewy/Chewy UCC128 Label Request PO RS41260550 10.02.2024.xlsx
+++ b/Finished/Chewy/Chewy UCC128 Label Request PO RS41260550 10.02.2024.xlsx
@@ -1121,234 +1121,531 @@
     <row r="14">
       <c r="A14" s="37" t="inlineStr">
         <is>
-          <t>Bill To</t>
+          <t>RS41260550</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>RS41260550</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="n"/>
+          <t>18706</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Fedex</t>
+        </is>
+      </c>
       <c r="D14" s="4" t="n"/>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F14" s="9" t="n"/>
-      <c r="G14" s="9" t="n"/>
-      <c r="H14" s="9" t="n"/>
-      <c r="I14" s="9" t="n"/>
-      <c r="J14" s="9" t="n"/>
-      <c r="K14" s="9" t="n"/>
-      <c r="L14" s="9" t="n"/>
-      <c r="M14" s="9" t="n"/>
+      <c r="E14" s="4" t="n"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>864178000275</t>
+        </is>
+      </c>
+      <c r="G14" s="9" t="inlineStr">
+        <is>
+          <t>Edi-DR-BC-LRG</t>
+        </is>
+      </c>
+      <c r="H14" s="9" t="inlineStr">
+        <is>
+          <t>1358142</t>
+        </is>
+      </c>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>EDIBITES DAILY RELEAF BLU CRN</t>
+        </is>
+      </c>
+      <c r="J14" s="9" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="K14" s="9" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="L14" s="9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M14" s="9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>Ship To</t>
+          <t>RS41260550</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>RS41260550</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="n"/>
+          <t>18706</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Fedex</t>
+        </is>
+      </c>
       <c r="D15" s="4" t="n"/>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F15" s="9" t="n"/>
-      <c r="G15" s="9" t="n"/>
-      <c r="H15" s="9" t="n"/>
-      <c r="I15" s="9" t="n"/>
-      <c r="J15" s="6" t="n"/>
-      <c r="K15" s="6" t="n"/>
-      <c r="L15" s="9" t="n"/>
-      <c r="M15" s="9" t="n"/>
+      <c r="E15" s="4" t="n"/>
+      <c r="F15" s="9" t="inlineStr">
+        <is>
+          <t>850016364883</t>
+        </is>
+      </c>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>Edi-HJ-PB-LRG</t>
+        </is>
+      </c>
+      <c r="H15" s="9" t="inlineStr">
+        <is>
+          <t>1358182</t>
+        </is>
+      </c>
+      <c r="I15" s="9" t="inlineStr">
+        <is>
+          <t>EDIBITE HIPANDJNT RELEAF PB BA</t>
+        </is>
+      </c>
+      <c r="J15" s="6" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="K15" s="6" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="L15" s="9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M15" s="9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>Vendor</t>
+          <t>RS41260550</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
+          <t>18706</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Fedex</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="4" t="n"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>850016364838</t>
+        </is>
+      </c>
+      <c r="G16" s="9" t="inlineStr">
+        <is>
+          <t>Edi-STRESS-PB-S</t>
+        </is>
+      </c>
+      <c r="H16" s="9" t="inlineStr">
+        <is>
+          <t>1358238</t>
+        </is>
+      </c>
+      <c r="I16" s="9" t="inlineStr">
+        <is>
+          <t>EDIBITE STRES RELEAF PB CAROB</t>
+        </is>
+      </c>
+      <c r="J16" s="6" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="K16" s="6" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="L16" s="9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M16" s="9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
           <t>RS41260550</t>
         </is>
       </c>
-      <c r="C16" s="4" t="n"/>
-      <c r="D16" s="4" t="n"/>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F16" s="9" t="n"/>
-      <c r="G16" s="9" t="n"/>
-      <c r="H16" s="9" t="n"/>
-      <c r="I16" s="9" t="n"/>
-      <c r="J16" s="6" t="n"/>
-      <c r="K16" s="6" t="n"/>
-      <c r="L16" s="9" t="n"/>
-      <c r="M16" s="9" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="n"/>
-      <c r="B17" s="4" t="n"/>
-      <c r="C17" s="4" t="n"/>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>18706</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Fedex</t>
+        </is>
+      </c>
       <c r="D17" s="4" t="n"/>
       <c r="E17" s="4" t="n"/>
-      <c r="F17" s="5" t="n"/>
-      <c r="G17" s="4" t="n"/>
-      <c r="H17" s="4" t="n"/>
-      <c r="I17" s="4" t="n"/>
-      <c r="J17" s="6" t="n"/>
-      <c r="K17" s="6" t="n"/>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>860008203465</t>
+        </is>
+      </c>
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t>300-HJR-HO</t>
+        </is>
+      </c>
+      <c r="H17" s="4" t="inlineStr">
+        <is>
+          <t>1358454</t>
+        </is>
+      </c>
+      <c r="I17" s="4" t="inlineStr">
+        <is>
+          <t>HIP AND JOINT RELEAF 300MG CBD</t>
+        </is>
+      </c>
+      <c r="J17" s="6" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="K17" s="6" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n"/>
-      <c r="B18" s="4" t="n"/>
-      <c r="C18" s="4" t="n"/>
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>RS41260550</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>18706</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Fedex</t>
+        </is>
+      </c>
       <c r="D18" s="4" t="n"/>
       <c r="E18" s="4" t="n"/>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="4" t="n"/>
-      <c r="H18" s="4" t="n"/>
-      <c r="I18" s="4" t="n"/>
-      <c r="J18" s="6" t="n"/>
-      <c r="K18" s="6" t="n"/>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>860008203441</t>
+        </is>
+      </c>
+      <c r="G18" s="4" t="inlineStr">
+        <is>
+          <t>300-SR-HO</t>
+        </is>
+      </c>
+      <c r="H18" s="4" t="inlineStr">
+        <is>
+          <t>1358462</t>
+        </is>
+      </c>
+      <c r="I18" s="4" t="inlineStr">
+        <is>
+          <t>PET RELEF STRES RELEAF 300MG C</t>
+        </is>
+      </c>
+      <c r="J18" s="6" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="K18" s="6" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="n"/>
-      <c r="B19" s="4" t="n"/>
-      <c r="C19" s="4" t="n"/>
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>RS41260550</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>18706</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>Fedex</t>
+        </is>
+      </c>
       <c r="D19" s="4" t="n"/>
       <c r="E19" s="4" t="n"/>
-      <c r="F19" s="5" t="n"/>
-      <c r="G19" s="4" t="n"/>
-      <c r="H19" s="4" t="n"/>
-      <c r="I19" s="4" t="n"/>
-      <c r="J19" s="6" t="n"/>
-      <c r="K19" s="6" t="n"/>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>860008203458</t>
+        </is>
+      </c>
+      <c r="G19" s="4" t="inlineStr">
+        <is>
+          <t>600-SR-HO</t>
+        </is>
+      </c>
+      <c r="H19" s="4" t="inlineStr">
+        <is>
+          <t>1358478</t>
+        </is>
+      </c>
+      <c r="I19" s="4" t="inlineStr">
+        <is>
+          <t>PET RELEF STRES RELEAF 600MG C</t>
+        </is>
+      </c>
+      <c r="J19" s="6" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="K19" s="6" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="n"/>
-      <c r="B20" s="4" t="n"/>
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>RS41260550</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>18706</t>
+        </is>
+      </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>09/25/2024</t>
+          <t>Fedex</t>
         </is>
       </c>
       <c r="D20" s="4" t="n"/>
       <c r="E20" s="4" t="n"/>
       <c r="F20" s="5" t="inlineStr">
         <is>
-          <t>Edi-DR-BC-LRG</t>
+          <t>860008203472</t>
         </is>
       </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>1358142</t>
+          <t>600-HJR-HO</t>
         </is>
       </c>
       <c r="H20" s="4" t="inlineStr">
         <is>
+          <t>1358494</t>
+        </is>
+      </c>
+      <c r="I20" s="4" t="inlineStr">
+        <is>
+          <t>HIP AND JOINT RELEAF 600MG CBD</t>
+        </is>
+      </c>
+      <c r="J20" s="6" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="K20" s="6" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I20" s="4" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="J20" s="6" t="n"/>
-      <c r="K20" s="6" t="n"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>EDIBITES DAILY RELEAF BLU CRN</t>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="n"/>
-      <c r="B21" s="4" t="n"/>
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>RS41260550</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>18706</t>
+        </is>
+      </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>09/25/2024</t>
+          <t>Fedex</t>
         </is>
       </c>
       <c r="D21" s="4" t="n"/>
       <c r="E21" s="4" t="n"/>
       <c r="F21" s="5" t="inlineStr">
         <is>
-          <t>Edi-HJ-PB-LRG</t>
+          <t>860008221988</t>
         </is>
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>1358182</t>
+          <t>180-CAT-SR</t>
         </is>
       </c>
       <c r="H21" s="4" t="inlineStr">
         <is>
+          <t>1358518</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
+          <t>FELNE STRES RELEAF 180MG CBD O</t>
+        </is>
+      </c>
+      <c r="J21" s="6" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="K21" s="6" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I21" s="4" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="J21" s="6" t="n"/>
-      <c r="K21" s="6" t="n"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>EDIBITE HIPANDJNT RELEAF PB BA</t>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="n"/>
-      <c r="B22" s="4" t="n"/>
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>RS41260550</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>18706</t>
+        </is>
+      </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>09/25/2024</t>
+          <t>Fedex</t>
         </is>
       </c>
       <c r="D22" s="4" t="n"/>
       <c r="E22" s="4" t="n"/>
       <c r="F22" s="5" t="inlineStr">
         <is>
-          <t>Edi-STRESS-PB-S</t>
+          <t>860009592575</t>
         </is>
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
-          <t>1358238</t>
+          <t>150-Mini-Stress</t>
         </is>
       </c>
       <c r="H22" s="4" t="inlineStr">
         <is>
+          <t>1358430</t>
+        </is>
+      </c>
+      <c r="I22" s="4" t="inlineStr">
+        <is>
+          <t>PET RELEF STRES RELEAF 150MG C</t>
+        </is>
+      </c>
+      <c r="J22" s="6" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="K22" s="6" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I22" s="4" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="J22" s="6" t="n"/>
-      <c r="K22" s="6" t="n"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>EDIBITE STRES RELEAF PB CAROB</t>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>

--- a/Finished/Chewy/Chewy UCC128 Label Request PO RS41260550 10.02.2024.xlsx
+++ b/Finished/Chewy/Chewy UCC128 Label Request PO RS41260550 10.02.2024.xlsx
@@ -1131,29 +1131,29 @@
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>Fedex</t>
+          <t>SAIA</t>
         </is>
       </c>
       <c r="D14" s="4" t="n"/>
       <c r="E14" s="4" t="n"/>
       <c r="F14" s="9" t="inlineStr">
         <is>
-          <t>864178000275</t>
+          <t>mixed</t>
         </is>
       </c>
       <c r="G14" s="9" t="inlineStr">
         <is>
-          <t>Edi-DR-BC-LRG</t>
+          <t>mixed</t>
         </is>
       </c>
       <c r="H14" s="9" t="inlineStr">
         <is>
-          <t>1358142</t>
+          <t>mixed</t>
         </is>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
-          <t>EDIBITES DAILY RELEAF BLU CRN</t>
+          <t>mixed</t>
         </is>
       </c>
       <c r="J14" s="9" t="inlineStr">
@@ -1166,488 +1166,120 @@
           <t>mixed</t>
         </is>
       </c>
-      <c r="L14" s="9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M14" s="9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="L14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>RS41260550</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>18706</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>Fedex</t>
-        </is>
-      </c>
+      <c r="A15" s="4" t="n"/>
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="4" t="n"/>
       <c r="D15" s="4" t="n"/>
       <c r="E15" s="4" t="n"/>
-      <c r="F15" s="9" t="inlineStr">
-        <is>
-          <t>850016364883</t>
-        </is>
-      </c>
-      <c r="G15" s="9" t="inlineStr">
-        <is>
-          <t>Edi-HJ-PB-LRG</t>
-        </is>
-      </c>
-      <c r="H15" s="9" t="inlineStr">
-        <is>
-          <t>1358182</t>
-        </is>
-      </c>
-      <c r="I15" s="9" t="inlineStr">
-        <is>
-          <t>EDIBITE HIPANDJNT RELEAF PB BA</t>
-        </is>
-      </c>
-      <c r="J15" s="6" t="inlineStr">
-        <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="K15" s="6" t="inlineStr">
-        <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="L15" s="9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M15" s="9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="F15" s="9" t="n"/>
+      <c r="G15" s="9" t="n"/>
+      <c r="H15" s="9" t="n"/>
+      <c r="I15" s="9" t="n"/>
+      <c r="J15" s="6" t="n"/>
+      <c r="K15" s="6" t="n"/>
+      <c r="L15" s="9" t="n"/>
+      <c r="M15" s="9" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
-        <is>
-          <t>RS41260550</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>18706</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>Fedex</t>
-        </is>
-      </c>
+      <c r="A16" s="4" t="n"/>
+      <c r="B16" s="4" t="n"/>
+      <c r="C16" s="4" t="n"/>
       <c r="D16" s="4" t="n"/>
       <c r="E16" s="4" t="n"/>
-      <c r="F16" s="9" t="inlineStr">
-        <is>
-          <t>850016364838</t>
-        </is>
-      </c>
-      <c r="G16" s="9" t="inlineStr">
-        <is>
-          <t>Edi-STRESS-PB-S</t>
-        </is>
-      </c>
-      <c r="H16" s="9" t="inlineStr">
-        <is>
-          <t>1358238</t>
-        </is>
-      </c>
-      <c r="I16" s="9" t="inlineStr">
-        <is>
-          <t>EDIBITE STRES RELEAF PB CAROB</t>
-        </is>
-      </c>
-      <c r="J16" s="6" t="inlineStr">
-        <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="K16" s="6" t="inlineStr">
-        <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="L16" s="9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M16" s="9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="F16" s="9" t="n"/>
+      <c r="G16" s="9" t="n"/>
+      <c r="H16" s="9" t="n"/>
+      <c r="I16" s="9" t="n"/>
+      <c r="J16" s="6" t="n"/>
+      <c r="K16" s="6" t="n"/>
+      <c r="L16" s="9" t="n"/>
+      <c r="M16" s="9" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
-        <is>
-          <t>RS41260550</t>
-        </is>
-      </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>18706</t>
-        </is>
-      </c>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
-          <t>Fedex</t>
-        </is>
-      </c>
+      <c r="A17" s="4" t="n"/>
+      <c r="B17" s="4" t="n"/>
+      <c r="C17" s="4" t="n"/>
       <c r="D17" s="4" t="n"/>
       <c r="E17" s="4" t="n"/>
-      <c r="F17" s="5" t="inlineStr">
-        <is>
-          <t>860008203465</t>
-        </is>
-      </c>
-      <c r="G17" s="4" t="inlineStr">
-        <is>
-          <t>300-HJR-HO</t>
-        </is>
-      </c>
-      <c r="H17" s="4" t="inlineStr">
-        <is>
-          <t>1358454</t>
-        </is>
-      </c>
-      <c r="I17" s="4" t="inlineStr">
-        <is>
-          <t>HIP AND JOINT RELEAF 300MG CBD</t>
-        </is>
-      </c>
-      <c r="J17" s="6" t="inlineStr">
-        <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="K17" s="6" t="inlineStr">
-        <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="F17" s="5" t="n"/>
+      <c r="G17" s="4" t="n"/>
+      <c r="H17" s="4" t="n"/>
+      <c r="I17" s="4" t="n"/>
+      <c r="J17" s="6" t="n"/>
+      <c r="K17" s="6" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>RS41260550</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>18706</t>
-        </is>
-      </c>
-      <c r="C18" s="4" t="inlineStr">
-        <is>
-          <t>Fedex</t>
-        </is>
-      </c>
+      <c r="A18" s="4" t="n"/>
+      <c r="B18" s="4" t="n"/>
+      <c r="C18" s="4" t="n"/>
       <c r="D18" s="4" t="n"/>
       <c r="E18" s="4" t="n"/>
-      <c r="F18" s="5" t="inlineStr">
-        <is>
-          <t>860008203441</t>
-        </is>
-      </c>
-      <c r="G18" s="4" t="inlineStr">
-        <is>
-          <t>300-SR-HO</t>
-        </is>
-      </c>
-      <c r="H18" s="4" t="inlineStr">
-        <is>
-          <t>1358462</t>
-        </is>
-      </c>
-      <c r="I18" s="4" t="inlineStr">
-        <is>
-          <t>PET RELEF STRES RELEAF 300MG C</t>
-        </is>
-      </c>
-      <c r="J18" s="6" t="inlineStr">
-        <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="K18" s="6" t="inlineStr">
-        <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="F18" s="5" t="n"/>
+      <c r="G18" s="4" t="n"/>
+      <c r="H18" s="4" t="n"/>
+      <c r="I18" s="4" t="n"/>
+      <c r="J18" s="6" t="n"/>
+      <c r="K18" s="6" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
-        <is>
-          <t>RS41260550</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="inlineStr">
-        <is>
-          <t>18706</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="inlineStr">
-        <is>
-          <t>Fedex</t>
-        </is>
-      </c>
+      <c r="A19" s="4" t="n"/>
+      <c r="B19" s="4" t="n"/>
+      <c r="C19" s="4" t="n"/>
       <c r="D19" s="4" t="n"/>
       <c r="E19" s="4" t="n"/>
-      <c r="F19" s="5" t="inlineStr">
-        <is>
-          <t>860008203458</t>
-        </is>
-      </c>
-      <c r="G19" s="4" t="inlineStr">
-        <is>
-          <t>600-SR-HO</t>
-        </is>
-      </c>
-      <c r="H19" s="4" t="inlineStr">
-        <is>
-          <t>1358478</t>
-        </is>
-      </c>
-      <c r="I19" s="4" t="inlineStr">
-        <is>
-          <t>PET RELEF STRES RELEAF 600MG C</t>
-        </is>
-      </c>
-      <c r="J19" s="6" t="inlineStr">
-        <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="K19" s="6" t="inlineStr">
-        <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="F19" s="5" t="n"/>
+      <c r="G19" s="4" t="n"/>
+      <c r="H19" s="4" t="n"/>
+      <c r="I19" s="4" t="n"/>
+      <c r="J19" s="6" t="n"/>
+      <c r="K19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
-        <is>
-          <t>RS41260550</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>18706</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>Fedex</t>
-        </is>
-      </c>
+      <c r="A20" s="4" t="n"/>
+      <c r="B20" s="4" t="n"/>
+      <c r="C20" s="4" t="n"/>
       <c r="D20" s="4" t="n"/>
       <c r="E20" s="4" t="n"/>
-      <c r="F20" s="5" t="inlineStr">
-        <is>
-          <t>860008203472</t>
-        </is>
-      </c>
-      <c r="G20" s="4" t="inlineStr">
-        <is>
-          <t>600-HJR-HO</t>
-        </is>
-      </c>
-      <c r="H20" s="4" t="inlineStr">
-        <is>
-          <t>1358494</t>
-        </is>
-      </c>
-      <c r="I20" s="4" t="inlineStr">
-        <is>
-          <t>HIP AND JOINT RELEAF 600MG CBD</t>
-        </is>
-      </c>
-      <c r="J20" s="6" t="inlineStr">
-        <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="K20" s="6" t="inlineStr">
-        <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="F20" s="5" t="n"/>
+      <c r="G20" s="4" t="n"/>
+      <c r="H20" s="4" t="n"/>
+      <c r="I20" s="4" t="n"/>
+      <c r="J20" s="6" t="n"/>
+      <c r="K20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
-        <is>
-          <t>RS41260550</t>
-        </is>
-      </c>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>18706</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>Fedex</t>
-        </is>
-      </c>
+      <c r="A21" s="4" t="n"/>
+      <c r="B21" s="4" t="n"/>
+      <c r="C21" s="4" t="n"/>
       <c r="D21" s="4" t="n"/>
       <c r="E21" s="4" t="n"/>
-      <c r="F21" s="5" t="inlineStr">
-        <is>
-          <t>860008221988</t>
-        </is>
-      </c>
-      <c r="G21" s="4" t="inlineStr">
-        <is>
-          <t>180-CAT-SR</t>
-        </is>
-      </c>
-      <c r="H21" s="4" t="inlineStr">
-        <is>
-          <t>1358518</t>
-        </is>
-      </c>
-      <c r="I21" s="4" t="inlineStr">
-        <is>
-          <t>FELNE STRES RELEAF 180MG CBD O</t>
-        </is>
-      </c>
-      <c r="J21" s="6" t="inlineStr">
-        <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="K21" s="6" t="inlineStr">
-        <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="F21" s="5" t="n"/>
+      <c r="G21" s="4" t="n"/>
+      <c r="H21" s="4" t="n"/>
+      <c r="I21" s="4" t="n"/>
+      <c r="J21" s="6" t="n"/>
+      <c r="K21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
-        <is>
-          <t>RS41260550</t>
-        </is>
-      </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>18706</t>
-        </is>
-      </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>Fedex</t>
-        </is>
-      </c>
+      <c r="A22" s="4" t="n"/>
+      <c r="B22" s="4" t="n"/>
+      <c r="C22" s="4" t="n"/>
       <c r="D22" s="4" t="n"/>
       <c r="E22" s="4" t="n"/>
-      <c r="F22" s="5" t="inlineStr">
-        <is>
-          <t>860009592575</t>
-        </is>
-      </c>
-      <c r="G22" s="4" t="inlineStr">
-        <is>
-          <t>150-Mini-Stress</t>
-        </is>
-      </c>
-      <c r="H22" s="4" t="inlineStr">
-        <is>
-          <t>1358430</t>
-        </is>
-      </c>
-      <c r="I22" s="4" t="inlineStr">
-        <is>
-          <t>PET RELEF STRES RELEAF 150MG C</t>
-        </is>
-      </c>
-      <c r="J22" s="6" t="inlineStr">
-        <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="K22" s="6" t="inlineStr">
-        <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="F22" s="5" t="n"/>
+      <c r="G22" s="4" t="n"/>
+      <c r="H22" s="4" t="n"/>
+      <c r="I22" s="4" t="n"/>
+      <c r="J22" s="6" t="n"/>
+      <c r="K22" s="6" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="4" t="n"/>
